--- a/biology/Botanique/Bois_flotté/Bois_flotté.xlsx
+++ b/biology/Botanique/Bois_flotté/Bois_flotté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_flott%C3%A9</t>
+          <t>Bois_flotté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois flotté est du bois qui a été drossé sur la côte (de l’océan ou de toute autre étendue d'eau salée) par l'action du vent, des courants ou des marées. L'appellation « bois flotté » implique un séjour de nombreux jours, semaines, mois ou années dans une étendue d'eau salée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_flott%C3%A9</t>
+          <t>Bois_flotté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur certaines côtes, le bois flotté constitue une importante nuisance cependant il participe au biotope, fournissant abri ou nourriture aux oiseaux marins, poissons ou autres espèces aquatiques lorsqu'il flotte ou lorsqu'il s'échoue sur la côte. Les limnories, les tarets et les bactéries décomposent ce bois, le transformant progressivement en nutriments qui sont réintroduits dans la chaîne alimentaire. Lorsque ce bois, partiellement décomposé et creusé, est rejeté à la côte, il peut servir d'abri aux oiseaux ou à d'autres espèces animales et permettre la pousse de certaines plantes. Dans certains cas, il peut servir de fondations pour la création de dunes.
 Provenance du bois flotté :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_flott%C3%A9</t>
+          <t>Bois_flotté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Dans l'histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la mythologie nordique, les premiers êtres humains, Ask et Embla ont été créés à partir de deux pièces de bois flotté, un frêne et un orme, par le dieu Odin et ses frères, Vé et Vili.
-Le bois flotté charrié par les fleuves arctiques a longtemps été la principale et quelquefois la seule ressource en bois des Inuits et d'autres populations de l'Arctique qui habitaient au-delà de la limite des arbres [1],[2],[3].
+Le bois flotté charrié par les fleuves arctiques a longtemps été la principale et quelquefois la seule ressource en bois des Inuits et d'autres populations de l'Arctique qui habitaient au-delà de la limite des arbres .
 Dans de nombreuses régions maritimes, le bois flotté était utilisé pour les séchoirs à poissons.
-Une des plus célèbres pièces de bois flotté est le Old Man of the Lake dans le lac du Cratère en Oregon (États-Unis). Le tronc de cet arbre flotte verticalement dans le lac depuis plus d'un siècle[4]. Grâce à l'eau froide du lac, l'arbre a été préservé.
+Une des plus célèbres pièces de bois flotté est le Old Man of the Lake dans le lac du Cratère en Oregon (États-Unis). Le tronc de cet arbre flotte verticalement dans le lac depuis plus d'un siècle. Grâce à l'eau froide du lac, l'arbre a été préservé.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_flott%C3%A9</t>
+          <t>Bois_flotté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,14 +597,16 @@
           <t>Sculptures en bois flotté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois flotté est fréquemment utilisé comme élément décoratif ou artistique. Des sculptures de bois flotté ont été construites sur des plages ou des vasières.
 Une des plus connues se trouve à Kullaberg en Suède, où Lars Vilks créa en 1980 Nimis, une œuvre controversée.
 Des sculptures furent créées dans les vasières d'Emeryville en Californie et dans la baie de San Francisco à la fin des années 1960.
 La première sculpture collective française en bois flotté a été édifiée en mars 2008, au centre de la chapelle Sainte-Anne de la ville d'Arles, par les visiteurs de l'exposition Marcher dans le pas des glaneurs organisée par un couple d'artistes locaux d’À Flots perdus. Construite avec des morceaux de bois flotté posés en équilibre, cette représentation de la "Bête des marais des Launes a atteint deux mètres de hauteur et trois mètres cinquante de longueur, le dernier jour de l'exposition. Le 18 mars 2008, elle a été démontée et les bois flottés ont été remis au Rhône pour respecter le cycle de la nature et remercier le fleuve pour sa prodigalité. (La Provence du 15 mars 2008)
-La seconde édition de "Marcher dans le pas des glaneurs" organisée en février 2010, par le même couple d'artistes arlésiens et Pierre Milhau, s'est déroulée au même endroit, en respectant le même rituel. Cette deuxième sculpture collective française a, cette fois ci, atteint deux mètres cinquante de hauteur et cinq mètres cinquante de longueur, avant d'être elle aussi démontée et rejetée dans le fleuve, le 17 février 2010[5] ;
-La ville d'Evian accueille chaque hiver depuis 2006 le festival « Le Fabuleux village ou la Légende des Flottins » ; cabanes, personnages, animaux en bois flotté voient le jour en centre-ville d'Evian : un véritable concentré d’art brut[6] !
+La seconde édition de "Marcher dans le pas des glaneurs" organisée en février 2010, par le même couple d'artistes arlésiens et Pierre Milhau, s'est déroulée au même endroit, en respectant le même rituel. Cette deuxième sculpture collective française a, cette fois ci, atteint deux mètres cinquante de hauteur et cinq mètres cinquante de longueur, avant d'être elle aussi démontée et rejetée dans le fleuve, le 17 février 2010 ;
+La ville d'Evian accueille chaque hiver depuis 2006 le festival « Le Fabuleux village ou la Légende des Flottins » ; cabanes, personnages, animaux en bois flotté voient le jour en centre-ville d'Evian : un véritable concentré d’art brut !
 	Differents types de bois flottés
 			Bois flotté pris dans des rochers sur la rivière Avon à Bath (Angleterre).
 			Bois flotté sur une plage du détroit de Juan de Fuca.
